--- a/Historial_de_precios.xlsx
+++ b/Historial_de_precios.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="62">
   <si>
     <t>Prcesadores</t>
   </si>
@@ -184,10 +184,22 @@
     <t>Micro Intel I9-14900KF 6.0 GHz 36Mb S.1700</t>
   </si>
   <si>
+    <t>Micro AMD Ryzen 5 8600G 5.0 Ghz AM5</t>
+  </si>
+  <si>
+    <t>Micro Intel I9-14900F 5.9 GHz 36Mb S.1700</t>
+  </si>
+  <si>
+    <t>Micro Intel I9-14900 5.8 GHz 36Mb S.1700</t>
+  </si>
+  <si>
     <t>26-03-2024</t>
   </si>
   <si>
     <t>02-04-2024</t>
+  </si>
+  <si>
+    <t>21-04-2024</t>
   </si>
 </sst>
 </file>
@@ -545,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,7 +585,7 @@
         <v>64403.45</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -587,7 +599,7 @@
         <v>83037.02</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -601,7 +613,7 @@
         <v>94760.03999999999</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -615,7 +627,7 @@
         <v>104353.98</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -629,7 +641,7 @@
         <v>119750.8</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -643,7 +655,7 @@
         <v>133374.2</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -657,7 +669,7 @@
         <v>133380.01</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -671,7 +683,7 @@
         <v>139054.98</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -685,7 +697,7 @@
         <v>144246.36</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -699,7 +711,7 @@
         <v>148771.99</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -713,7 +725,7 @@
         <v>160016.28</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -727,7 +739,7 @@
         <v>178805.87</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -741,7 +753,7 @@
         <v>186205.81</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -755,7 +767,7 @@
         <v>186571.15</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -769,7 +781,7 @@
         <v>190763.41</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -783,7 +795,7 @@
         <v>218740.9</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -797,7 +809,7 @@
         <v>220382.53</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -811,7 +823,7 @@
         <v>221862.32</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -825,7 +837,7 @@
         <v>242520.3</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -839,7 +851,7 @@
         <v>250600.54</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -853,7 +865,7 @@
         <v>260225.49</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -867,7 +879,7 @@
         <v>280922.24</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -881,7 +893,7 @@
         <v>295325.75</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -895,7 +907,7 @@
         <v>296345.22</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -909,7 +921,7 @@
         <v>319912.4</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -923,7 +935,7 @@
         <v>325287.92</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -937,7 +949,7 @@
         <v>329439.48</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -951,7 +963,7 @@
         <v>331837.96</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -965,7 +977,7 @@
         <v>64476.89</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -979,7 +991,7 @@
         <v>94868.09</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -993,7 +1005,7 @@
         <v>104472.97</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1007,7 +1019,7 @@
         <v>119887.35</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1021,7 +1033,7 @@
         <v>133526.28</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1035,7 +1047,7 @@
         <v>133532.1</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1049,7 +1061,7 @@
         <v>139213.53</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1063,7 +1075,7 @@
         <v>144410.84</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1077,7 +1089,7 @@
         <v>148941.63</v>
       </c>
       <c r="D38" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1091,7 +1103,7 @@
         <v>179009.76</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1105,7 +1117,7 @@
         <v>188300.3</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1119,7 +1131,7 @@
         <v>190980.93</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1133,7 +1145,7 @@
         <v>218990.32</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1147,7 +1159,7 @@
         <v>219964.39</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1161,7 +1173,7 @@
         <v>220633.82</v>
       </c>
       <c r="D44" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1175,7 +1187,7 @@
         <v>242999.61</v>
       </c>
       <c r="D45" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1189,7 +1201,7 @@
         <v>250886.28</v>
       </c>
       <c r="D46" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1203,7 +1215,7 @@
         <v>260522.21</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1217,7 +1229,7 @@
         <v>281242.56</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1231,7 +1243,7 @@
         <v>295662.49</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1245,7 +1257,7 @@
         <v>296683.13</v>
       </c>
       <c r="D50" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1259,7 +1271,7 @@
         <v>320277.18</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1273,7 +1285,7 @@
         <v>325658.83</v>
       </c>
       <c r="D52" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1287,7 +1299,7 @@
         <v>329815.12</v>
       </c>
       <c r="D53" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1301,7 +1313,7 @@
         <v>333458.18</v>
       </c>
       <c r="D54" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1315,7 +1327,7 @@
         <v>337000.35</v>
       </c>
       <c r="D55" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1329,7 +1341,7 @@
         <v>359204.12</v>
       </c>
       <c r="D56" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1343,7 +1355,7 @@
         <v>359663.02</v>
       </c>
       <c r="D57" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1357,7 +1369,7 @@
         <v>363448.7</v>
       </c>
       <c r="D58" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1371,7 +1383,7 @@
         <v>369737.47</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1385,7 +1397,7 @@
         <v>398760.7</v>
       </c>
       <c r="D60" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1399,7 +1411,7 @@
         <v>440254.76</v>
       </c>
       <c r="D61" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1413,7 +1425,7 @@
         <v>449226.11</v>
       </c>
       <c r="D62" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1427,7 +1439,7 @@
         <v>467898.38</v>
       </c>
       <c r="D63" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1441,7 +1453,7 @@
         <v>471881.01</v>
       </c>
       <c r="D64" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1455,7 +1467,7 @@
         <v>475520.19</v>
       </c>
       <c r="D65" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1469,7 +1481,7 @@
         <v>498999.76</v>
       </c>
       <c r="D66" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1483,7 +1495,7 @@
         <v>515225.22</v>
       </c>
       <c r="D67" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1497,7 +1509,7 @@
         <v>532121.08</v>
       </c>
       <c r="D68" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1511,7 +1523,7 @@
         <v>562590.87</v>
       </c>
       <c r="D69" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1525,7 +1537,7 @@
         <v>591859.5600000001</v>
       </c>
       <c r="D70" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1539,7 +1551,7 @@
         <v>628000.11</v>
       </c>
       <c r="D71" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1553,7 +1565,7 @@
         <v>635063.09</v>
       </c>
       <c r="D72" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1567,7 +1579,7 @@
         <v>694138.9300000001</v>
       </c>
       <c r="D73" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1581,7 +1593,7 @@
         <v>718114.26</v>
       </c>
       <c r="D74" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1595,7 +1607,7 @@
         <v>779016.97</v>
       </c>
       <c r="D75" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1609,7 +1621,7 @@
         <v>820542.0699999999</v>
       </c>
       <c r="D76" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1623,7 +1635,7 @@
         <v>833321.42</v>
       </c>
       <c r="D77" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1637,7 +1649,7 @@
         <v>837096.4300000001</v>
       </c>
       <c r="D78" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1651,7 +1663,399 @@
         <v>907792.23</v>
       </c>
       <c r="D79" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80">
+        <v>330851.56</v>
+      </c>
+      <c r="D80" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81">
+        <v>332048.16</v>
+      </c>
+      <c r="D81" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>56</v>
+      </c>
+      <c r="C82">
+        <v>334365.44</v>
+      </c>
+      <c r="D82" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83">
+        <v>335074.13</v>
+      </c>
+      <c r="D83" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84">
+        <v>342373.93</v>
+      </c>
+      <c r="D84" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>35</v>
+      </c>
+      <c r="C85">
+        <v>400173.03</v>
+      </c>
+      <c r="D85" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86">
+        <v>414520.3</v>
+      </c>
+      <c r="D86" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87">
+        <v>447274.77</v>
+      </c>
+      <c r="D87" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>38</v>
+      </c>
+      <c r="C88">
+        <v>456389.16</v>
+      </c>
+      <c r="D88" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>41</v>
+      </c>
+      <c r="C89">
+        <v>474697.8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>40</v>
+      </c>
+      <c r="C90">
+        <v>479405.31</v>
+      </c>
+      <c r="D90" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>39</v>
+      </c>
+      <c r="C91">
+        <v>499399.42</v>
+      </c>
+      <c r="D91" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92">
+        <v>506956.48</v>
+      </c>
+      <c r="D92" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93">
+        <v>523440.66</v>
+      </c>
+      <c r="D93" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>44</v>
+      </c>
+      <c r="C94">
+        <v>540605.9300000001</v>
+      </c>
+      <c r="D94" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95">
+        <v>557878.63</v>
+      </c>
+      <c r="D95" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>46</v>
+      </c>
+      <c r="C96">
+        <v>603198.29</v>
+      </c>
+      <c r="D96" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>47</v>
+      </c>
+      <c r="C97">
+        <v>638013.78</v>
+      </c>
+      <c r="D97" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>48</v>
+      </c>
+      <c r="C98">
+        <v>645189.38</v>
+      </c>
+      <c r="D98" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>49</v>
+      </c>
+      <c r="C99">
+        <v>670628.28</v>
+      </c>
+      <c r="D99" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>50</v>
+      </c>
+      <c r="C100">
+        <v>712761.3</v>
+      </c>
+      <c r="D100" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>51</v>
+      </c>
+      <c r="C101">
+        <v>746948.92</v>
+      </c>
+      <c r="D101" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102">
+        <v>820880.3199999999</v>
+      </c>
+      <c r="D102" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>53</v>
+      </c>
+      <c r="C103">
+        <v>830918.28</v>
+      </c>
+      <c r="D103" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>55</v>
+      </c>
+      <c r="C104">
+        <v>851909.88</v>
+      </c>
+      <c r="D104" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>54</v>
+      </c>
+      <c r="C105">
+        <v>856289.17</v>
+      </c>
+      <c r="D105" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
         <v>57</v>
+      </c>
+      <c r="C106">
+        <v>868273.8100000001</v>
+      </c>
+      <c r="D106" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>58</v>
+      </c>
+      <c r="C107">
+        <v>920063.34</v>
+      </c>
+      <c r="D107" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
